--- a/Threat Modeling/Attack Library/Attack Library.xlsx
+++ b/Threat Modeling/Attack Library/Attack Library.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SANE\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bace\Documents\GitHub\HASUMS\Threat Modeling\Attack Library\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E4AA843B-E6E8-4CD2-8DF4-EB7CCC97BF55}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E099424A-1BBB-44B7-8EE9-AC7EC0E28747}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="405" yWindow="510" windowWidth="14460" windowHeight="14865" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CVE, CWE" sheetId="6" r:id="rId1"/>
@@ -668,24 +668,6 @@
     <t>AL-V-35</t>
   </si>
   <si>
-    <t>AL-V-36</t>
-  </si>
-  <si>
-    <t>AL-V-37</t>
-  </si>
-  <si>
-    <t>AL-V-38</t>
-  </si>
-  <si>
-    <t>AL-V-39</t>
-  </si>
-  <si>
-    <t>AL-V-40</t>
-  </si>
-  <si>
-    <t>AL-V-41</t>
-  </si>
-  <si>
     <t>https://www.sciencedirect.com/science/article/pii/S0167404817300809</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -785,13 +767,34 @@
     <t>AL-P-27</t>
   </si>
   <si>
-    <t>AL-P-28</t>
-  </si>
-  <si>
-    <t>AL-P-29</t>
-  </si>
-  <si>
     <t>Title</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL-W-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL-W-2</t>
+  </si>
+  <si>
+    <t>AL-W-3</t>
+  </si>
+  <si>
+    <t>AL-W-4</t>
+  </si>
+  <si>
+    <t>AL-W-5</t>
+  </si>
+  <si>
+    <t>AL-W-6</t>
+  </si>
+  <si>
+    <t>AL-S-1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AL-TR-1</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1249,7 +1252,7 @@
         <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>167</v>
@@ -1963,7 +1966,7 @@
     </row>
     <row r="37" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>207</v>
+        <v>239</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>169</v>
@@ -1983,7 +1986,7 @@
     </row>
     <row r="38" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
-        <v>208</v>
+        <v>240</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>169</v>
@@ -2003,7 +2006,7 @@
     </row>
     <row r="39" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
-        <v>209</v>
+        <v>241</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>169</v>
@@ -2023,7 +2026,7 @@
     </row>
     <row r="40" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>210</v>
+        <v>242</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>169</v>
@@ -2043,7 +2046,7 @@
     </row>
     <row r="41" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>211</v>
+        <v>243</v>
       </c>
       <c r="B41" s="3" t="s">
         <v>169</v>
@@ -2063,7 +2066,7 @@
     </row>
     <row r="42" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="B42" s="3" t="s">
         <v>169</v>
@@ -2150,7 +2153,7 @@
         <v>166</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>167</v>
@@ -2164,7 +2167,7 @@
     </row>
     <row r="2" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>42</v>
@@ -2179,12 +2182,12 @@
         <v>2017</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>42</v>
@@ -2204,7 +2207,7 @@
     </row>
     <row r="4" spans="1:6" ht="63.75" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>42</v>
@@ -2213,7 +2216,7 @@
         <v>45</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="E4" s="3">
         <v>2021</v>
@@ -2224,7 +2227,7 @@
     </row>
     <row r="5" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>42</v>
@@ -2239,12 +2242,12 @@
         <v>2019</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>42</v>
@@ -2264,7 +2267,7 @@
     </row>
     <row r="7" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>42</v>
@@ -2284,7 +2287,7 @@
     </row>
     <row r="8" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>42</v>
@@ -2304,7 +2307,7 @@
     </row>
     <row r="9" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>42</v>
@@ -2324,7 +2327,7 @@
     </row>
     <row r="10" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>42</v>
@@ -2344,7 +2347,7 @@
     </row>
     <row r="11" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>42</v>
@@ -2364,7 +2367,7 @@
     </row>
     <row r="12" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>42</v>
@@ -2384,7 +2387,7 @@
     </row>
     <row r="13" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>42</v>
@@ -2404,7 +2407,7 @@
     </row>
     <row r="14" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>42</v>
@@ -2424,7 +2427,7 @@
     </row>
     <row r="15" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>42</v>
@@ -2444,7 +2447,7 @@
     </row>
     <row r="16" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>42</v>
@@ -2464,7 +2467,7 @@
     </row>
     <row r="17" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>42</v>
@@ -2484,7 +2487,7 @@
     </row>
     <row r="18" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>42</v>
@@ -2504,7 +2507,7 @@
     </row>
     <row r="19" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>42</v>
@@ -2524,7 +2527,7 @@
     </row>
     <row r="20" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>42</v>
@@ -2544,7 +2547,7 @@
     </row>
     <row r="21" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>42</v>
@@ -2564,7 +2567,7 @@
     </row>
     <row r="22" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>42</v>
@@ -2573,7 +2576,7 @@
         <v>63</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="E22" s="3">
         <v>2020</v>
@@ -2584,7 +2587,7 @@
     </row>
     <row r="23" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>42</v>
@@ -2604,7 +2607,7 @@
     </row>
     <row r="24" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>42</v>
@@ -2624,7 +2627,7 @@
     </row>
     <row r="25" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>42</v>
@@ -2644,7 +2647,7 @@
     </row>
     <row r="26" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>42</v>
@@ -2664,7 +2667,7 @@
     </row>
     <row r="27" spans="1:6" ht="38.25" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>42</v>
@@ -2684,7 +2687,7 @@
     </row>
     <row r="28" spans="1:6" ht="89.25" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>42</v>
@@ -2704,7 +2707,7 @@
     </row>
     <row r="29" spans="1:6" ht="51" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>42</v>
@@ -2724,7 +2727,7 @@
     </row>
     <row r="30" spans="1:6" ht="25.5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>42</v>
